--- a/output/Fishing_UniqueData.xlsx
+++ b/output/Fishing_UniqueData.xlsx
@@ -720,24 +720,24 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BEAV_N_06</t>
+          <t>BEAV_N_07</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>N6</t>
+          <t>N7</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BEAV_N_07</t>
+          <t>BEAV_N_09</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>N7</t>
+          <t>N9</t>
         </is>
       </c>
     </row>
